--- a/tests/data/import/xlsx/dirty/xlsx/test_file.xlsx
+++ b/tests/data/import/xlsx/dirty/xlsx/test_file.xlsx
@@ -182,7 +182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,11 +219,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -247,7 +243,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -367,29 +363,29 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10" t="n">
+      <c r="D8" s="4"/>
+      <c r="E8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
         <v>24</v>
@@ -398,47 +394,47 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
